--- a/Crawler/watson/watson/ibm_topic.xlsx
+++ b/Crawler/watson/watson/ibm_topic.xlsx
@@ -46,43 +46,259 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
+    <t>0                       partners</t>
+  </si>
+  <si>
+    <t>1                    information</t>
+  </si>
+  <si>
+    <t>2                       industry</t>
+  </si>
+  <si>
+    <t>3                         social</t>
+  </si>
+  <si>
+    <t>4                           city</t>
+  </si>
+  <si>
+    <t>5                          world</t>
+  </si>
+  <si>
+    <t>6                         skills</t>
+  </si>
+  <si>
+    <t>7                           said</t>
+  </si>
+  <si>
+    <t>8                        company</t>
+  </si>
+  <si>
+    <t>9                           help</t>
+  </si>
+  <si>
+    <t>10                      services</t>
+  </si>
+  <si>
+    <t>11                    technology</t>
+  </si>
+  <si>
+    <t>12                           new</t>
+  </si>
+  <si>
+    <t>13                        global</t>
+  </si>
+  <si>
+    <t>14                      business</t>
+  </si>
+  <si>
+    <t>0                    information</t>
+  </si>
+  <si>
+    <t>1                           help</t>
+  </si>
+  <si>
+    <t>2                     management</t>
+  </si>
+  <si>
+    <t>3                         access</t>
+  </si>
+  <si>
+    <t>4                       platform</t>
+  </si>
+  <si>
+    <t>5                    development</t>
+  </si>
+  <si>
+    <t>6                     enterprise</t>
+  </si>
+  <si>
+    <t>7                       services</t>
+  </si>
+  <si>
+    <t>8                           apps</t>
+  </si>
+  <si>
+    <t>9                     developers</t>
+  </si>
+  <si>
+    <t>10                           new</t>
+  </si>
+  <si>
+    <t>11                 organizations</t>
+  </si>
+  <si>
+    <t>12                          data</t>
+  </si>
+  <si>
+    <t>13                        mobile</t>
+  </si>
+  <si>
+    <t>14                      security</t>
+  </si>
+  <si>
+    <t>0                     technology</t>
+  </si>
+  <si>
+    <t>1                       platform</t>
+  </si>
+  <si>
+    <t>2                          based</t>
+  </si>
+  <si>
+    <t>3                       language</t>
+  </si>
+  <si>
+    <t>4                    information</t>
+  </si>
+  <si>
+    <t>5                       learning</t>
+  </si>
+  <si>
+    <t>6                       insights</t>
+  </si>
+  <si>
+    <t>7                      computing</t>
+  </si>
+  <si>
+    <t>8                           help</t>
+  </si>
+  <si>
+    <t>9                            new</t>
+  </si>
+  <si>
+    <t>10                            ai</t>
+  </si>
+  <si>
+    <t>11                        health</t>
+  </si>
+  <si>
+    <t>13                     cognitive</t>
+  </si>
+  <si>
+    <t>14                        watson</t>
+  </si>
+  <si>
+    <t>0                     healthcare</t>
+  </si>
+  <si>
+    <t>1                           care</t>
+  </si>
+  <si>
+    <t>2                         center</t>
+  </si>
+  <si>
+    <t>3                        medical</t>
+  </si>
+  <si>
+    <t>4                      computing</t>
+  </si>
+  <si>
+    <t>5                     prnewswire</t>
+  </si>
+  <si>
+    <t>6                            new</t>
+  </si>
+  <si>
+    <t>7                         health</t>
+  </si>
+  <si>
+    <t>8                          world</t>
+  </si>
+  <si>
+    <t>9                       students</t>
+  </si>
+  <si>
+    <t>10                   information</t>
+  </si>
+  <si>
+    <t>11                          http</t>
+  </si>
+  <si>
+    <t>12                    technology</t>
+  </si>
+  <si>
+    <t>13                    university</t>
+  </si>
+  <si>
+    <t>14                      research</t>
+  </si>
+  <si>
+    <t>0                          based</t>
+  </si>
+  <si>
+    <t>1                        network</t>
+  </si>
+  <si>
+    <t>2                    performance</t>
+  </si>
+  <si>
+    <t>3                      computing</t>
+  </si>
+  <si>
+    <t>4                   applications</t>
+  </si>
+  <si>
+    <t>5                       platform</t>
+  </si>
+  <si>
+    <t>6                          chain</t>
+  </si>
+  <si>
+    <t>7                         supply</t>
+  </si>
+  <si>
+    <t>8                       industry</t>
+  </si>
+  <si>
+    <t>9                           open</t>
+  </si>
+  <si>
+    <t>10                    technology</t>
+  </si>
+  <si>
+    <t>11                           new</t>
+  </si>
+  <si>
+    <t>12                        energy</t>
+  </si>
+  <si>
+    <t>13                         power</t>
+  </si>
+  <si>
+    <t>14                       systems</t>
+  </si>
+  <si>
     <t>0                     prnewswire</t>
   </si>
   <si>
-    <t>1                           help</t>
-  </si>
-  <si>
-    <t>2                       customer</t>
-  </si>
-  <si>
-    <t>3                       software</t>
-  </si>
-  <si>
-    <t>4                      marketing</t>
-  </si>
-  <si>
-    <t>5                           time</t>
-  </si>
-  <si>
-    <t>6                       insights</t>
-  </si>
-  <si>
-    <t>7                           http</t>
-  </si>
-  <si>
-    <t>8                    information</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>10                           big</t>
-  </si>
-  <si>
-    <t>11                        social</t>
-  </si>
-  <si>
-    <t>12                      business</t>
+    <t>1                        clients</t>
+  </si>
+  <si>
+    <t>3                    performance</t>
+  </si>
+  <si>
+    <t>4                           time</t>
+  </si>
+  <si>
+    <t>5                           http</t>
+  </si>
+  <si>
+    <t>6                        systems</t>
+  </si>
+  <si>
+    <t>7                    information</t>
+  </si>
+  <si>
+    <t>8                            big</t>
+  </si>
+  <si>
+    <t>9                       business</t>
+  </si>
+  <si>
+    <t>10                      software</t>
+  </si>
+  <si>
+    <t>12                       storage</t>
   </si>
   <si>
     <t>13                     analytics</t>
@@ -91,373 +307,118 @@
     <t>14                          data</t>
   </si>
   <si>
-    <t>0                     technology</t>
-  </si>
-  <si>
-    <t>1                     developers</t>
-  </si>
-  <si>
-    <t>2                        servers</t>
-  </si>
-  <si>
-    <t>3                        clients</t>
-  </si>
-  <si>
-    <t>4                      computing</t>
-  </si>
-  <si>
-    <t>5                          based</t>
-  </si>
-  <si>
-    <t>6                           open</t>
-  </si>
-  <si>
-    <t>7                   applications</t>
-  </si>
-  <si>
-    <t>8                       software</t>
-  </si>
-  <si>
-    <t>9                    performance</t>
-  </si>
-  <si>
-    <t>10                          data</t>
-  </si>
-  <si>
-    <t>11                           new</t>
-  </si>
-  <si>
-    <t>12                         power</t>
-  </si>
-  <si>
-    <t>13                       storage</t>
-  </si>
-  <si>
-    <t>14                       systems</t>
-  </si>
-  <si>
-    <t>0                        revenue</t>
-  </si>
-  <si>
-    <t>1                      increased</t>
-  </si>
-  <si>
-    <t>2                            non</t>
-  </si>
-  <si>
-    <t>3                          sales</t>
-  </si>
-  <si>
-    <t>4                          study</t>
-  </si>
-  <si>
-    <t>5                       business</t>
-  </si>
-  <si>
-    <t>6                          share</t>
-  </si>
-  <si>
-    <t>7                      consumers</t>
-  </si>
-  <si>
-    <t>8                         online</t>
-  </si>
-  <si>
-    <t>9                       customer</t>
-  </si>
-  <si>
-    <t>10                       company</t>
-  </si>
-  <si>
-    <t>11                          year</t>
-  </si>
-  <si>
-    <t>12                       billion</t>
-  </si>
-  <si>
-    <t>13                        mobile</t>
+    <t>0                         global</t>
+  </si>
+  <si>
+    <t>1                          study</t>
+  </si>
+  <si>
+    <t>2                        million</t>
+  </si>
+  <si>
+    <t>3                       business</t>
+  </si>
+  <si>
+    <t>4                             10</t>
+  </si>
+  <si>
+    <t>5                        results</t>
+  </si>
+  <si>
+    <t>6                      operating</t>
+  </si>
+  <si>
+    <t>7                        revenue</t>
+  </si>
+  <si>
+    <t>8                      increased</t>
+  </si>
+  <si>
+    <t>9                            non</t>
+  </si>
+  <si>
+    <t>10                         share</t>
+  </si>
+  <si>
+    <t>11                       company</t>
+  </si>
+  <si>
+    <t>12                          year</t>
+  </si>
+  <si>
+    <t>13                       billion</t>
   </si>
   <si>
     <t>14                       percent</t>
   </si>
   <si>
-    <t>0                          visit</t>
-  </si>
-  <si>
-    <t>1                            new</t>
-  </si>
-  <si>
-    <t>2                     technology</t>
-  </si>
-  <si>
-    <t>3                       business</t>
-  </si>
-  <si>
-    <t>4                          media</t>
-  </si>
-  <si>
-    <t>5                          world</t>
-  </si>
-  <si>
-    <t>6                       20090416</t>
-  </si>
-  <si>
-    <t>7                    information</t>
-  </si>
-  <si>
-    <t>8                           data</t>
-  </si>
-  <si>
-    <t>9                           prnh</t>
-  </si>
-  <si>
-    <t>10                      services</t>
-  </si>
-  <si>
-    <t>11                       company</t>
-  </si>
-  <si>
-    <t>12                        photos</t>
+    <t>0                        newscom</t>
+  </si>
+  <si>
+    <t>1                            cgi</t>
+  </si>
+  <si>
+    <t>2                            bin</t>
+  </si>
+  <si>
+    <t>3                       20090416</t>
+  </si>
+  <si>
+    <t>4                      financial</t>
+  </si>
+  <si>
+    <t>5                        contact</t>
+  </si>
+  <si>
+    <t>7                        service</t>
+  </si>
+  <si>
+    <t>8                           prnh</t>
+  </si>
+  <si>
+    <t>9                     management</t>
+  </si>
+  <si>
+    <t>11                      business</t>
+  </si>
+  <si>
+    <t>12                      software</t>
   </si>
   <si>
     <t>13                          http</t>
   </si>
   <si>
-    <t>14                    prnewswire</t>
-  </si>
-  <si>
-    <t>0                       language</t>
-  </si>
-  <si>
-    <t>1                       platform</t>
-  </si>
-  <si>
-    <t>2                          based</t>
-  </si>
-  <si>
-    <t>3                       insights</t>
-  </si>
-  <si>
-    <t>5                    information</t>
-  </si>
-  <si>
-    <t>6                        medical</t>
-  </si>
-  <si>
-    <t>7                           help</t>
-  </si>
-  <si>
-    <t>8                     healthcare</t>
+    <t>14                      services</t>
+  </si>
+  <si>
+    <t>0                   applications</t>
+  </si>
+  <si>
+    <t>2                      computing</t>
+  </si>
+  <si>
+    <t>4                     enterprise</t>
+  </si>
+  <si>
+    <t>5                            new</t>
+  </si>
+  <si>
+    <t>6                         global</t>
+  </si>
+  <si>
+    <t>7                      solutions</t>
+  </si>
+  <si>
+    <t>8                        service</t>
   </si>
   <si>
     <t>9                           data</t>
   </si>
   <si>
-    <t>10                          care</t>
-  </si>
-  <si>
-    <t>12                     cognitive</t>
-  </si>
-  <si>
-    <t>13                        health</t>
-  </si>
-  <si>
-    <t>14                        watson</t>
-  </si>
-  <si>
-    <t>0                           time</t>
-  </si>
-  <si>
-    <t>1                      companies</t>
-  </si>
-  <si>
-    <t>2                         access</t>
-  </si>
-  <si>
-    <t>3                   capabilities</t>
-  </si>
-  <si>
-    <t>4                       research</t>
-  </si>
-  <si>
-    <t>6                           risk</t>
-  </si>
-  <si>
-    <t>7                     management</t>
-  </si>
-  <si>
-    <t>8                            new</t>
-  </si>
-  <si>
-    <t>9                   intelligence</t>
-  </si>
-  <si>
-    <t>10                          help</t>
-  </si>
-  <si>
-    <t>11                 organizations</t>
-  </si>
-  <si>
-    <t>12                            ai</t>
-  </si>
-  <si>
-    <t>13                          data</t>
-  </si>
-  <si>
-    <t>14                      security</t>
-  </si>
-  <si>
-    <t>0                           said</t>
-  </si>
-  <si>
-    <t>1                     prnewswire</t>
-  </si>
-  <si>
-    <t>2                           help</t>
-  </si>
-  <si>
-    <t>3                        science</t>
-  </si>
-  <si>
-    <t>4                           http</t>
-  </si>
-  <si>
-    <t>6                           city</t>
-  </si>
-  <si>
-    <t>7                         center</t>
-  </si>
-  <si>
-    <t>8                      computing</t>
-  </si>
-  <si>
-    <t>9                       students</t>
-  </si>
-  <si>
-    <t>10                           new</t>
-  </si>
-  <si>
-    <t>11                         world</t>
-  </si>
-  <si>
-    <t>12                    technology</t>
-  </si>
-  <si>
-    <t>13                    university</t>
-  </si>
-  <si>
-    <t>14                      research</t>
-  </si>
-  <si>
-    <t>0                       20090416</t>
-  </si>
-  <si>
-    <t>1                        smarter</t>
-  </si>
-  <si>
-    <t>2                         energy</t>
-  </si>
-  <si>
-    <t>3                            cgi</t>
-  </si>
-  <si>
-    <t>4                            bin</t>
-  </si>
-  <si>
-    <t>5                        newscom</t>
-  </si>
-  <si>
-    <t>6                        contact</t>
-  </si>
-  <si>
-    <t>7                           prnh</t>
-  </si>
-  <si>
-    <t>9                       services</t>
-  </si>
-  <si>
-    <t>10                    management</t>
-  </si>
-  <si>
-    <t>11                      business</t>
-  </si>
-  <si>
-    <t>12                   information</t>
-  </si>
-  <si>
-    <t>13                      software</t>
-  </si>
-  <si>
-    <t>14                          http</t>
-  </si>
-  <si>
-    <t>0                        clients</t>
-  </si>
-  <si>
-    <t>1                         supply</t>
-  </si>
-  <si>
-    <t>2                      companies</t>
-  </si>
-  <si>
-    <t>3                           said</t>
-  </si>
-  <si>
-    <t>4                       partners</t>
-  </si>
-  <si>
-    <t>5                      financial</t>
-  </si>
-  <si>
-    <t>6                      solutions</t>
-  </si>
-  <si>
-    <t>8                        digital</t>
-  </si>
-  <si>
-    <t>10                    technology</t>
-  </si>
-  <si>
-    <t>12                      industry</t>
-  </si>
-  <si>
-    <t>13                        global</t>
-  </si>
-  <si>
-    <t>14                      business</t>
-  </si>
-  <si>
-    <t>0                      customers</t>
-  </si>
-  <si>
-    <t>1                   applications</t>
-  </si>
-  <si>
-    <t>2                         global</t>
-  </si>
-  <si>
-    <t>3                       platform</t>
-  </si>
-  <si>
-    <t>4                           data</t>
-  </si>
-  <si>
-    <t>5                      solutions</t>
-  </si>
-  <si>
-    <t>6                     enterprise</t>
-  </si>
-  <si>
-    <t>7                       business</t>
-  </si>
-  <si>
-    <t>9                 infrastructure</t>
-  </si>
-  <si>
-    <t>10                        hybrid</t>
-  </si>
-  <si>
-    <t>11                       service</t>
+    <t>10                infrastructure</t>
+  </si>
+  <si>
+    <t>11                        hybrid</t>
   </si>
   <si>
     <t>12                       clients</t>
@@ -467,6 +428,45 @@
   </si>
   <si>
     <t>14                         cloud</t>
+  </si>
+  <si>
+    <t>0                      consumers</t>
+  </si>
+  <si>
+    <t>1                         social</t>
+  </si>
+  <si>
+    <t>2                       business</t>
+  </si>
+  <si>
+    <t>3                         online</t>
+  </si>
+  <si>
+    <t>4                        company</t>
+  </si>
+  <si>
+    <t>6                      marketing</t>
+  </si>
+  <si>
+    <t>7                          media</t>
+  </si>
+  <si>
+    <t>8                     prnewswire</t>
+  </si>
+  <si>
+    <t>9                         mobile</t>
+  </si>
+  <si>
+    <t>11                     customers</t>
+  </si>
+  <si>
+    <t>12                       digital</t>
+  </si>
+  <si>
+    <t>13                    experience</t>
+  </si>
+  <si>
+    <t>14                      customer</t>
   </si>
 </sst>
 </file>
@@ -873,25 +873,25 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -905,25 +905,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -937,25 +937,25 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -969,10 +969,10 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -981,13 +981,13 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1001,10 +1001,10 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -1013,13 +1013,13 @@
         <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1033,25 +1033,25 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1065,22 +1065,22 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
         <v>143</v>
@@ -1097,22 +1097,22 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
         <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
         <v>144</v>
@@ -1129,25 +1129,25 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1161,25 +1161,25 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1193,25 +1193,25 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1225,22 +1225,22 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
         <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
         <v>147</v>
@@ -1254,25 +1254,25 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
         <v>148</v>
@@ -1286,25 +1286,25 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
         <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
         <v>149</v>
@@ -1318,25 +1318,25 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
         <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
